--- a/coef_tot.xlsx
+++ b/coef_tot.xlsx
@@ -12,27 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Modele</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">a_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base_upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_upper</t>
   </si>
   <si>
     <t xml:space="preserve">NLS_tot_an</t>
@@ -404,143 +422,269 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>368.889544215283</v>
+        <v>365.018754430605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000451523241411728</v>
+        <v>373.162211324685</v>
       </c>
       <c r="D2" t="n">
-        <v>114.593996376056</v>
+        <v>0.00027677202260957</v>
       </c>
       <c r="E2" t="n">
-        <v>1.37163600595256</v>
+        <v>0.000651962162499452</v>
       </c>
       <c r="F2" t="n">
-        <v>5.87894739482603</v>
+        <v>106.550427658159</v>
       </c>
       <c r="G2" t="n">
-        <v>0.161968149842701</v>
+        <v>122.14535573948</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.00307609854813</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.76826774857521</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.08053080937369</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.52874124483214</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.025176740009757</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.530117190853874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>363.809928372923</v>
+        <v>363.806960298477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000400479772928736</v>
+        <v>359.876682847405</v>
       </c>
       <c r="D3" t="n">
-        <v>120.783846932319</v>
+        <v>0.000400783294058726</v>
       </c>
       <c r="E3" t="n">
-        <v>0.67171176071589</v>
+        <v>0.000158905047430264</v>
       </c>
       <c r="F3" t="n">
-        <v>6.00461075447802</v>
+        <v>120.78959850902</v>
       </c>
       <c r="G3" t="n">
-        <v>0.109471351469636</v>
+        <v>112.307037716763</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.674499088698209</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.332067134436691</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.01629967739631</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.54829295307009</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.108581441605949</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.0707723858074863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>367.916948818735</v>
+        <v>367.910019862013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000454534806850376</v>
+        <v>364.557201127727</v>
       </c>
       <c r="D4" t="n">
-        <v>125.327603860647</v>
+        <v>0.000455525685458995</v>
       </c>
       <c r="E4" t="n">
-        <v>0.556962855651319</v>
+        <v>0.000237278084935553</v>
       </c>
       <c r="F4" t="n">
-        <v>7.84307052513935</v>
+        <v>125.346441984134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0258487895782892</v>
+        <v>118.720355370679</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.561606542098042</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.338752104215473</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.87610343663356</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.0323569188918</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0252695321143339</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.0228106536765033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>366.358610237861</v>
+        <v>363.45478581653</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.000170747312723279</v>
+        <v>369.390719581879</v>
       </c>
       <c r="D5" t="n">
-        <v>114.593996376056</v>
+        <v>-0.000301781574138415</v>
       </c>
       <c r="E5" t="n">
-        <v>1.06894458650928</v>
+        <v>-0.0000404253654855713</v>
       </c>
       <c r="F5" t="n">
-        <v>4.70187455322119</v>
+        <v>108.388524247211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.204899017435265</v>
+        <v>126.883400020787</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.726102357262932</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.40031502843746</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.43606655755031</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.48748715985706</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0609325501801668</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.488826730502912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>366.256432425564</v>
+        <v>362.380689948329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000108798305516316</v>
+        <v>370.268490908967</v>
       </c>
       <c r="D6" t="n">
-        <v>120.783846932319</v>
+        <v>-0.0000535850369862531</v>
       </c>
       <c r="E6" t="n">
-        <v>0.86865811311359</v>
+        <v>0.000282307927636831</v>
       </c>
       <c r="F6" t="n">
-        <v>4.38773890037444</v>
+        <v>105.786762024287</v>
       </c>
       <c r="G6" t="n">
-        <v>0.187564968395521</v>
+        <v>125.338855235157</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.624384963169266</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.10143983534206</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.97283103360092</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.49123885674607</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0464722004024646</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.482830129977563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>368.341189874351</v>
+        <v>365.286199275952</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0000335770276121186</v>
+        <v>371.495609681513</v>
       </c>
       <c r="D7" t="n">
-        <v>125.327603860647</v>
+        <v>-0.000165319971061292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.89202869841382</v>
+        <v>0.000100992250398566</v>
       </c>
       <c r="F7" t="n">
-        <v>4.10043215866864</v>
+        <v>111.282929363324</v>
       </c>
       <c r="G7" t="n">
-        <v>0.335176806729022</v>
+        <v>129.472353637906</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.543497376864045</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.22512801993759</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.95179140059606</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.72868361335235</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.111564782917444</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.733007541499272</v>
       </c>
     </row>
   </sheetData>
